--- a/translation-project/Assets/VIDE/Resources/populate_videos/debug_tables/M010_Mentor1_Dialogue1.json.xlsx
+++ b/translation-project/Assets/VIDE/Resources/populate_videos/debug_tables/M010_Mentor1_Dialogue1.json.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,20 +374,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>DialogPosition</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dialogs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ClosestDialog</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ClosestDialogCoord</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>LibrasVideoPath</t>
         </is>
@@ -396,468 +401,553 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Recompensa: sacos de papel (tipo saco de pão ou saco de pipoca) e experiência)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recompensa: sacos de papel (tipo saco de pão ou saco de pipoca) potinhos de plástico, caderno de campo e experiência)</t>
+          <t>Vamos! Muito obrigado!</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t xml:space="preserve">Vamos! Muito obrigado!
+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>vegetacao/Arthur/L6.vp8</t>
+          <t>J6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/J6.vp8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vamos! Muito obrigado!</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vamos! Muito obrigado!
-</t>
+          <t>Recompensa: sacos de papel (tipo saco de pão ou saco de pipoca) e experiência)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>J6</t>
+          <t>Recompensa: sacos de papel (tipo saco de pão ou saco de pipoca) potinhos de plástico, caderno de campo e experiência)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>vegetacao/Arthur/J6.vp8</t>
+          <t>L6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/L6.vp8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ah sim! Mas eu estou muito interessada em saber como posso ajudar na pesquisa sobre a vegetação.</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ah sim! Mas eu estou muito interessada em saber como posso ajudar na pesquisa sobre a vegetação. </t>
+          <t xml:space="preserve">NÃO COMPLETOU O MINIJOGO </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>NÃO COMPLETOU O MINIJOGO:</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>vegetacao/Arthur/C6.vp8</t>
+          <t>J11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/J11.vp8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sem problemas. Obrigado por me ouvir.</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sem problemas. Obrigado por me ouvir.</t>
+          <t>Ah!!! Tudo bem, é complicado reconhecer essas diferenças mesmo.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tudo bem!</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>vegetacao/Arthur/J7.vp8</t>
+          <t>H11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/H11.vp8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ah sim! Mas eu estou muito interessada em saber como posso ajudar na pesquisa sobre a vegetação.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ah sim! Mas eu estou muito interessada em saber como posso ajudar na pesquisa sobre a vegetação. </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/C6.vp8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imagino que você já escutou  bastante sobre vegetação antártica por aí  no acampamento... Esses cientistas adoram falar de suas pesquisas! Hahaha, e eu também! </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imagino que você já escutou  bastante sobre vegetação antártica por aí  no acampamento... Esses cientistas adoram falar de suas pesquisas! Hahaha, e eu também! 
+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/B6.vp8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Óóóó!! Muito obrigada pela ajuda! Sabe, eu acho que tenho muitos materiais de coleta, e mesmo adorando coletar amostras, não vou usar todos. Aqui, pode ficar com eles.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Olá, lá vai mais uma dica. Sabia que o trabalho de amostragem não termina aqui no campo? Depois das amostras serem coletadas, o saco onde elas são armazenadas devem ficar abertos para elas secarem. Algumas vezes são secadas no laboratório, com a ajuda ou não de aquecedores a gás ou do forno do fogão! Tudo para manter o material bem preservado até a sua correta identificação</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/B15.vp8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Primeiro você precisa compreender um pouco sobre os desafios que as plantas enfrentam aqui. Já parou para pensar como um organismo fotossintetizante, como as plantas, lida com 24 horas de escuridão no período do inverno?+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Primeiro você precisa compreender um pouco sobre os desafios que as plantas enfrentam aqui. Já parou para pensar como um organismo fotossintetizante, como as plantas, lida com 24 horas de escuridão no período do inverno? </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/D6.vp8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claro que eu posso! Vamos?+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Claro que eu posso! Vamos?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I6</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/I6.vp8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>...ééé, obrigada…</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Muito obrigada, agora vou procurar saber como posso ajudar na pesquisa aqui!</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/H3.vp8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ai, ai, ai, ai, ai… Acabo de ver que minhas cartas na tabela de organização de vegetação ficou toda bagunçada. E eu preciso fazer a coleta e análise de várias amostras. Será que você poderia me ajudar a arrumar a combinação de cartas por cores na tabela, por favor?</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ai, ai, ai, ai, ai… Acabo de ver que minhas cartas na tabela de organização de vegetação ficou toda bagunçada. E eu preciso fazer a coleta e análise de várias amostras. Será que você poderia me ajudar a arrumar a combinação de cartas por cores na tabela, por favor?</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/H6.vp8</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">Nossa, sabe que não tinha pensado nisso! </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Nossa, sabe que não tinha pensado nisso!</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>E6</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>vegetacao/Arthur/E6.vp8</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Primeiro você precisa compreender um pouco sobre os desafios que as plantas enfrentam aqui. Já parou para pensar como um organismo fotossintetizante, como as plantas, lida com 24 horas de escuridão no período do inverno?+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sem problemas. Obrigado por me ouvir.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sem problemas. Obrigado por me ouvir.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>J7</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/J7.vp8</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jogar  </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Primeiro você precisa compreender um pouco sobre os desafios que as plantas enfrentam aqui. Já parou para pensar como um organismo fotossintetizante, como as plantas, lida com 24 horas de escuridão no período do inverno? </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>D6</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>vegetacao/Arthur/D6.vp8</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Jogar</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/I10.vp8</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Agora eu não consigo, me desculpa.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Agora eu não consigo, me desculpa.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>vegetacao/Arthur/I7.vp8</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">Parece ser muito complexa a vida para elas! Mas agora eu posso te ajudar? </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Parece ser muito complexa a vida para elas! Mas agora eu posso te ajudar?</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>G6</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>vegetacao/Arthur/G6.vp8</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NÃO COMPLETOU O MINIJOGO </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NÃO COMPLETOU O MINIJOGO:</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>J11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>vegetacao/Arthur/J11.vp8</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ai, ai, ai, ai, ai… Acabo de ver que minhas cartas na tabela de organização de vegetação ficou toda bagunçada. E eu preciso fazer a coleta e análise de várias amostras. Será que você poderia me ajudar a arrumar a combinação de cartas por cores na tabela, por favor?</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ai, ai, ai, ai, ai… Acabo de ver que minhas cartas na tabela de organização de vegetação ficou toda bagunçada. E eu preciso fazer a coleta e análise de várias amostras. Será que você poderia me ajudar a arrumar a combinação de cartas por cores na tabela, por favor?</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>H6</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>vegetacao/Arthur/H6.vp8</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>...ééé, obrigada…</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Muito obrigada, agora vou procurar saber como posso ajudar na pesquisa aqui!</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>vegetacao/Arthur/H3.vp8</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imagino que você já escutou  bastante sobre vegetação antártica por aí  no acampamento... Esses cientistas adoram falar de suas pesquisas! Hahaha, e eu também! </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imagino que você já escutou  bastante sobre vegetação antártica por aí  no acampamento... Esses cientistas adoram falar de suas pesquisas! Hahaha, e eu também! 
-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>vegetacao/Arthur/B6.vp8</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">Sim, é muito interessante investigar a vida das plantas aqui.  As características fisiológicas e anatômicas da vegetação encontrada na Antártica  são ajustadas às condições extremas desse continente. </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Sim, é muito interessante investigar a vida das plantas aqui.  As características fisiológicas e anatômicas da vegetação encontrada na Antártica  são ajustadas às condições extremas desse continente.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>F6</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>vegetacao/Arthur/F6.vp8</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Óóóó!! Muito obrigada pela ajuda! Sabe, eu acho que tenho muitos materiais de coleta, e mesmo adorando coletar amostras, não vou usar todos. Aqui, pode ficar com eles.</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Olá, lá vai mais uma dica. Sabia que o trabalho de amostragem não termina aqui no campo? Depois das amostras serem coletadas, o saco onde elas são armazenadas devem ficar abertos para elas secarem. Algumas vezes são secadas no laboratório, com a ajuda ou não de aquecedores a gás ou do forno do fogão! Tudo para manter o material bem preservado até a sua correta identificação</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>B15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>vegetacao/Arthur/B15.vp8</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Agora eu não consigo, me desculpa.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Agora eu não consigo, me desculpa.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>I7</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>vegetacao/Arthur/I7.vp8</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Ah!!! Tudo bem, é complicado reconhecer essas diferenças mesmo.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Olá, lá vai mais uma dica. Sabia que o trabalho de amostragem não termina aqui no campo? Depois das amostras serem coletadas, o saco onde elas são armazenadas devem ficar abertos para elas secarem. Algumas vezes são secadas no laboratório, com a ajuda ou não de aquecedores a gás ou do forno do fogão! Tudo para manter o material bem preservado até a sua correta identificação</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>B15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>vegetacao/Arthur/B15.vp8</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claro que eu posso! Vamos?-</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Claro que eu posso! Vamos?</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>I6</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>vegetacao/Arthur/I6.vp8</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jogar -</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Jogar</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>I10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>vegetacao/Arthur/I10.vp8</t>
         </is>
       </c>
     </row>
